--- a/cursos.xlsx
+++ b/cursos.xlsx
@@ -5,1602 +5,2068 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="962" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="527">
-  <si>
-    <t xml:space="preserve">Lógica de Programação I: Os primeiros programas com JavaScript e HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lógica de Programação I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/logica-programacao-javascript-html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante em Programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lógica de Programação II: pratique com desenhos, animações e um jogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lógica de Programação II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/logica-programacao-pratica-com-desenho-animacoes-em-jogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,Canvas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML5 e CSS3 I: Suas primeiras páginas da Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML5 e CSS3 I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-html-css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML,CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML5 e CSS3 II: Turnando as suas páginas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML5 e CSS3 II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/avancando-html-css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript: Programando na linguagem da web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/javascript-programando-na-linguagem-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante em Programação,Programador Angular 1,Desenvolvedor Mobile Multiplataforma Cordova,Desenvolvedor Front-end,Desenvolvedor Node.js,Desenvolvedor Vue.js,Desenvolvedor JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML,CSS,JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java I: Primeiros Passos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/primeiros-passos-com-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java II: Orientação a Objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/java-e-orientacao-a-objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java III: Principais APIs e bibliotecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/java-e-bibliotecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java: Dominando Collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java Collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/java-collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java 8: Tire proveito dos novos recursos da linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/java8-lambdas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP: Entendendo a web por baixo dos panos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/http-fundamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante Back-end PHP,Desenvolvedor ASP.NET,Desenvolvedor Java Web,Desenvolvedor Node.js,Desenvolvedor JavaScript,Desenvolvedor Web com Flask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servlets: Fundamentos de Java na Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/servlet-3-e-fundamentos-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSP,JSTL,HTTP,MVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSTL: Tags para facilitar o desenvolvimento JSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jstl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSP,JSTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL I: Iniciando suas consultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-a-banco-de-dados-e-sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante Back-end PHP,Iniciando com SQL e MySQL,Desenvolvedor Java Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL,MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JDBC: Trabalhando com um banco de dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JDBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jdbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JDBC,MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git: Controle e compartilhe seu código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web,Engenheiro Devops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JPA: Persista seus objetos com JPA2  e Hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JPA2 I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/persistencia-de-objetos-com-jpa-hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web com Spring,Desenvolvedor Java Web Enterprise, Desenvolvimento web com Play! Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JPA,Hibernate,JPQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JPA: Otimizações com JPA2 e Hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JPA2 II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jpa-avancado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSF I: Sua aplicação web com JSF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSF I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jsf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web Enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSF,MVC,JPA,AJAX,Facelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSF2 – II: Componentes ricos com Primefaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSF2 II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jsf-primefaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSF,JPA,Hibernate,Primefaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSF2 – III: integração com CDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e JSF2 III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jsf-cdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSF,JPA,Hibernate,CDI,Maven,EJB,Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java EE parte 1: Crie sua loja online com CDI, JSF, JPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java EE parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/java-ee-webapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSF,JPA,Hibernate,BeanValidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java EE parte 2: Sua loja online com HTML, REST e Cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java EE parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/java-ee-webapp-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSF,JPA,Hibernate,JSON,JAX-RS,REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java EE parte 3: Finalizando sua loja com REST, JMS, JAAS e WebSockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java EE parte 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/java-ee-webapp-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JSF,JPA,Hibernate,JSON,XML,JMS,JAAS,WebSockets,WildFly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJB: O poder da Java EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/ejb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,EJB,JPA,Hibernate,JTA,Web Services,JAX-WS,WSDL,SOAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maven: Build do zero a web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/maven-build-do-zero-a-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Maven,Eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring MVC I: Criando aplicações web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring MVC I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/spring-mvc-1-criando-aplicacoes-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Java Web com Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Spring MVC,JPA,Hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring MVC II: integração, cache, segurança e templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring MVC II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/springmvc-2-integracao-cache-seguranca-e-templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Spring MVC,JPA,Hibernate,JSON,Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Boot: Agilidade no desenvolvimento java com Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/springboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Spring Boot,JPA,Hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAX-RS e Jersey: Domine a criação de webservices REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAX-RS e Jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/webservices-rest-com-jaxrs-e-jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expert em Integrações de Aplicações com java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,JAX-RS,Grizzly,JSON,HTTP,JAXB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAX-WS: Domine a criação de webservices SOAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAX-WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/web-services-soap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,SOAP,WSDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMS e ActiveMQ: Mensageria com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMS e ActiveMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Mensageria,ActiveMQ,JMS,XML,DLQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Camel: O framework de integração entre sistemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Camel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/camel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Apache Camel,HTTP,XSLT,SOAP,JMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest Assured: Testes automatizados de webservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest Assured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/rest-assured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Rest Assured,JSON,Web Services,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java Reflection: mágica e meta programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java Reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/reflection-em-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avançando na Plataforma Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e XML: integração, parsing e validação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java e XML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/xml-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,XML,XSD,XSLT,JAXB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threads 1: Programação paralela em Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threads 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/threads-java-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threads 2: Programação concorrente avançada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threads 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/threads-java-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Threads,Sockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse: produtividade Extrema na IDE com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntelliJ IDEA: aumente a sua produtividade em projetos java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntelliJ IDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/intellij-idea-truques-para-aumentar-sua-produtividade-em-projetos-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,IntelliJ IDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Java I: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Java I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expert em Orientação a Objetos com java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Design Patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Java II: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Java II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-patterns-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLID com Java: Orientação a Objetos com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLID com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/orientacao-a-objetos-avancada-e-principios-solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,SOLID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testes: TDD com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDD com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/tdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Testes,TDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste de Integração: Testes SQL e DAOs automatizados em Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste de Integração com Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/teste-de-integracao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Testes,Teste de Integração,Mock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# I: Fundamentos da linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/fundamentos-de-csharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Mobile Multiplataforma Xamarin,Desenvolvedor ASP.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Visual Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# II: Orientação a Objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/csharp-orientacao-a-objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# III: Lidando com exceções, manipulando arquivos e listas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/csharp-topicos-avancados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework Core: Banco de dados de forma eficiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/entity-framework-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor ASP.NET,Desenvolvedor .Net com Entity Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Entity Framework Core,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP.NET MVC 5: O framework pronto para web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP.NET MVC 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/desenvolvimento-web-asp-net-mvc-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor ASP.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,ASP.NET,MVC,AJAX,Jquery,JSON,HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns C# I: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns C# I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-patterns-dotnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor .NET Erudito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Design Patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns C# II: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns C# II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-patterns-2-dot-net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLID com C#: Orientação a Objetos com C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLID com C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/orientacao-a-objetos-avancada-e-principios-solid-csharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,SOLID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testes: TDD com C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDD com C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/test-driven-development-tdd-dotnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Testes,TDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# Reflection parte 1: Metadados do seu código .NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# Reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/reflection-parte-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLServer I: desvendando o banco de dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLServer I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/sqlserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor .Net com Entity Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLServer,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework: Banco de dados de forma eficiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/entity-framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Entity Framework,SQLServer,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity LinQ parte 1: Crie queries poderosas em C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity LinQ parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/linq-c-sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Entity LinQ,SqlServer,SQL,XML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity LinQ parte 2: Store procedures e consultas com LinQPad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity LinQ parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/linq-c-sharp-parte-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Entity LinQ,SQLServer,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework Core parte 1: Mapeando um banco pré-existente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework Core parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/entity-framework-core-banco-pre-existente-parte1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#,Entity Framework Core,SQLServer,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework Core parte 2: Mapeando um banco pré-existente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework Core parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/entity-framework-core-banco-pre-existente-parte2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP e MySQL I: Fundamentos para criar um sistema na Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP e MySQL I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/php-mysql-e-fundamentos-da-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante Back-end PHP,Desenvolvedor Wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP,MySQL,SQL,HTML,HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP e MySQL II: Cookies, sessões e mais recursos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP e MySQL II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/php-mysql-e-fundamentos-da-web-parte-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciante Back-end PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP,MySQL,SQL,HTML,HTTP,SMTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP I: Orientação a objetos com sua linguagem preferida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/php-oo-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP II: Avançando com Orientação a objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/php-oo-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns PHP I: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns PHP I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-pattern-php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor PHP Erudito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP,Design Patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns PHP II: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns PHP II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-patterns-php-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLID com PHP: Orientação a Objetos com PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLID com PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/orientacao-a-objetos-avancada-e-principios-solid-php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP,SOLID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testes: TDD com PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDD com PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/testes-com-php-unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP,Testes,TDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 2: Programando com a linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-ao-python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,Python 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 3 parte 1: Introdução à nova versão da linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 3 parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/python-3-introducao-a-nova-versao-da-linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Python,Desenvolvedor Web com Flask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,Python 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 3 parte 2: Avançando na linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 3 parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/python-3-avancando-na-linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 3: introdução a Orientação a objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python 3 OO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/python-3-intro-orientacao-objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django: programação web com Python e simplicidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-ao-django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,Django,HTML,HTTP,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Python I: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Python I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-patterns-python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,Design Patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Python II: Boas práticas de programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns Python II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/design-patterns-python-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby I: Introdução a lógica de programação com jogos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-a-programacao-com-ruby-e-jogos-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Ruby on Rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby II: Continuando seus primeiros passos na programação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-a-programacao-com-ruby-e-jogos-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby III: Mais lógica de programação em um novo jogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-a-programacao-com-ruby-e-jogos-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby on Rails 4: do zero à web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby on Rails 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/ruby-on-rails-4-do-zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby,MVC,HTML,HTTP,Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientação a Objetos: Melhores técnicas com Ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientação a Objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/orientacao-objetos-ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress I: hospedagem, administração e widgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/wordpress-hospedagem-administracao-widgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress,HTML,CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress II: páginas, temas e boas práticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/wordpress-paginas-temas-boas-praticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress: Criação de um tema do zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/wordpress-criacao-tema-zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress,HTML,CSS,PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO Wordpress: Otimize o ranqueamento do seu site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO Wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/seo-wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Wordpress,SEO Expert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress,HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: O Básico de Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-basico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java OCJP I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,Certificação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Tipos de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-tipos-de-dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Operadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-operadores-decisao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Criando e usando Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-usando-arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Laços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-loops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Métodos e encapsulamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-metodos-encapsulamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Relações entre classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-heranca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Lidando com exceções</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-excecoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificação Java SE 7 Programmer I: Conteúdo além da prova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/certificacao-java-lambdas-api-de-datas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística I: Entenda seus dados com R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-a-estatistica-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inteligência Artificial iniciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística,R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística II: Aprofundando em hipóteses e correlações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-a-estatistica-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning: Introdução a classificação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/introducao-a-machine-learning-com-classificacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning,Python,CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning II: Avançando com tipos diferentes de classificação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/machine-learning-classificacao-ii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning: Introdução ao sistemas de recomendações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/machine-learning-introducao-aos-sistemas-de-recomendacoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine learning,Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot parte 1: Começando com as conversas inteligentes usando o Watson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/chatbot-watson-conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot,Watson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot parte 2: Avançando e integrando o bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/chatbot-parte-2-comunicando-sua-app-com-o-bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocos Creator parte 1: Simplificando o desenvolvimento de jogos para Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocos Creator parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/cocos-creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento de jogos com Cocos Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocos Creator,JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocos Creator parte 2: Aprimore os conhecimentos com a engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocos Creator parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/cocos-creator-parte2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity parte 1: Criação de um jogo de sobrevivência à zumbis para Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/criacao-de-jogos-com-unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento de jogos com Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity parte 2: Iluminação, interface e boas práticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/criacao-de-jogos-com-unity-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino: Do zero ao jogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/arduino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embarcados e internet das Coisas,Internet das Coisas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino,IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino: Introdução à Robótica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/arduino-robotica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino,Robótica,IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet das Coisas: Medindo e publicando dados com NodeMcu e MQTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/iot-com-nodemcu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT,NodeMcu,MQTT,IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet das Coisas: Controle seu ambiente com Amazon Alexa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/iot-amazon-alexa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Alexa,Raspberry Pi,NodeMcu,IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet das Coisas: Conecte dispositivos à nuvem com Amazon IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/amazon-iot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embarcados e Intermet das Coisas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon IoT,DynamoDB,IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi: Da instalação ao Media Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/raspberrypi-da-instalacao-ao-media-center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embarcados e Intermet das Coisas,Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi,Robótica,IoT,RetroPie,Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi: Controlando o mundo com GPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/raspberrypi-controlando-o-mundo-com-gpio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi,Robótica,IoT,GPIO,Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi: carro espião com câmera, wifi e sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/raspberrypi-carro-espiao-com-camera-wifi-e-sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi,Robótica,IoT,Python,Flask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask parte 1: Crie uma webapp com Python 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/flask-rotas-templates-autenticacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Web com Flask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,Flask,HTTP,HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask parte 2: Avançando no desenvolvimento web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/flask-upload-persistencia-javascript-jquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python,Flask,HTTP,HTML,JavaScript,MySQL,SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play! Framework I: Crie webapps de modo rápido e fácil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play! Framework I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/play-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor web com Play! Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java,HTTP,MySQl,SQL.HTML.Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play! Framework II: Envie e-mails e desenvolva sistemas de autenticação e segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play! Framework II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/play-seguranca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expressões regulares: Capturando textos de forma mágica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expressões regulares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/expressoes-regulares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jQuery: Domine a biblioteca mais popular do mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jQuery parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jquery-a-biblioteca-do-mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Front-end,Desenvolvedor JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Jquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jQuery: Avance na biblioteca mais popular do mercado parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jQuery parte 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/jquery-a-biblioteca-do-mercado-parte-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Jquery,AJAX.HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript: Projeto de conclusão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/projeto-carreira-javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Jquery,AJAx,HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript avançado I: ES6, orientação a objetos e padrões de projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript Avançado I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/javascript-es6-orientacao-a-objetos-parte-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programador React,Programador Angular2,Engenheiro JavaScript,Desenvolvedor Typescript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript Avançado II: ES6, orietanção a objetos e padrões de projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript Avançado II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/javascript-es6-orientacao-a-objetos-parte-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,HTTP,AJAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript Avançado III: ES6, orientação a objetos e padrões de projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript Avançado III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/javascript-es6-orientacao-a-objetos-parte-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,HTTP,AJAX,IndexDB,Babel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasmine: Testes automatizados em JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/testes-automatizados-em-javascript-com-jasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenheiro JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,Testes,TDD,Jasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressive Web Apps: crie apps offline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressive Web Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/progressive-webapp-offline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,Progressive Web Apps,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Design Responsivo: Páginas que se adptam do mobile ao desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Design Responsivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/web-design-responsivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Front-end,Email marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Web Design Responsivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front-end: Projeto de conclusão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/projeto-carreira-front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor Front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulp: automação de tarefas front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/gulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenheiro Front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,Gulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Web I: otimizando o front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Web I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/otimizacao-performance-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Web II: Critical Path, HTTP/2 e Resource Hints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Web II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/performance-http2-critical-path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sass e Compass: Descomplicando o CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sass e Compass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/sass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML,CSS,HTTP.Sass,Compass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bootstrap: criação de uma single-page responsiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/bootstrap-criacao-single-page-responsiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome DevTools: analise, inspecione e depure suas páginas Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome DevTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/chrome-devtools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,HTML,CSS,HTTP,Chrome Dev Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular 1: crie webapss poderosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cursos.alura.com.br/course/angularjs-mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor FullStack MEAN,Programador Angular 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript,MVC,HTML,HTTP,Angular 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="684">
+  <si>
+    <t>Lógica de Programação I: Os primeiros programas com JavaScript e HTML</t>
+  </si>
+  <si>
+    <t>Lógica de Programação I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/logica-programacao-javascript-html</t>
+  </si>
+  <si>
+    <t>ALURA</t>
+  </si>
+  <si>
+    <t>Iniciante em Programação</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML</t>
+  </si>
+  <si>
+    <t>Lógica de Programação II: pratique com desenhos, animações e um jogo</t>
+  </si>
+  <si>
+    <t>Lógica de Programação II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/logica-programacao-pratica-com-desenho-animacoes-em-jogo</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,Canvas</t>
+  </si>
+  <si>
+    <t>HTML5 e CSS3 I: Suas primeiras páginas da Web</t>
+  </si>
+  <si>
+    <t>HTML5 e CSS3 I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-html-css</t>
+  </si>
+  <si>
+    <t>HTML,CSS</t>
+  </si>
+  <si>
+    <t>HTML5 e CSS3 II: Turnando as suas páginas</t>
+  </si>
+  <si>
+    <t>HTML5 e CSS3 II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/avancando-html-css</t>
+  </si>
+  <si>
+    <t>JavaScript: Programando na linguagem da web</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/javascript-programando-na-linguagem-web</t>
+  </si>
+  <si>
+    <t>Iniciante em Programação,Programador Angular 1,Desenvolvedor Mobile Multiplataforma Cordova,Desenvolvedor Front-end,Desenvolvedor Node.js,Desenvolvedor Vue.js,Desenvolvedor JavaScript</t>
+  </si>
+  <si>
+    <t>HTML,CSS,JavaScript</t>
+  </si>
+  <si>
+    <t>Java I: Primeiros Passos</t>
+  </si>
+  <si>
+    <t>Java I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/primeiros-passos-com-java</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Java II: Orientação a Objetos</t>
+  </si>
+  <si>
+    <t>Java II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/java-e-orientacao-a-objetos</t>
+  </si>
+  <si>
+    <t>Java III: Principais APIs e bibliotecas</t>
+  </si>
+  <si>
+    <t>Java III</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/java-e-bibliotecas</t>
+  </si>
+  <si>
+    <t>Java: Dominando Collections</t>
+  </si>
+  <si>
+    <t>Java Collections</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/java-collections</t>
+  </si>
+  <si>
+    <t>Java 8: Tire proveito dos novos recursos da linguagem</t>
+  </si>
+  <si>
+    <t>Java 8</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/java8-lambdas</t>
+  </si>
+  <si>
+    <t>HTTP: Entendendo a web por baixo dos panos</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/http-fundamentos</t>
+  </si>
+  <si>
+    <t>Iniciante Back-end PHP,Desenvolvedor ASP.NET,Desenvolvedor Java Web,Desenvolvedor Node.js,Desenvolvedor JavaScript,Desenvolvedor Web com Flask</t>
+  </si>
+  <si>
+    <t>Servlets: Fundamentos de Java na Web</t>
+  </si>
+  <si>
+    <t>Servlets</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/servlet-3-e-fundamentos-web</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web</t>
+  </si>
+  <si>
+    <t>Java,JSP,JSTL,HTTP,MVC</t>
+  </si>
+  <si>
+    <t>Java e JSTL: Tags para facilitar o desenvolvimento JSP</t>
+  </si>
+  <si>
+    <t>Java e JSTL</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jstl</t>
+  </si>
+  <si>
+    <t>Java,JSP,JSTL</t>
+  </si>
+  <si>
+    <t>MySQL I: Iniciando suas consultas</t>
+  </si>
+  <si>
+    <t>MySQL I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-a-banco-de-dados-e-sql</t>
+  </si>
+  <si>
+    <t>Iniciante Back-end PHP,Iniciando com SQL e MySQL,Desenvolvedor Java Web</t>
+  </si>
+  <si>
+    <t>SQL,MySQL</t>
+  </si>
+  <si>
+    <t>Java e JDBC: Trabalhando com um banco de dados</t>
+  </si>
+  <si>
+    <t>Java e JDBC</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jdbc</t>
+  </si>
+  <si>
+    <t>Java,JDBC,MySQL</t>
+  </si>
+  <si>
+    <t>Git: Controle e compartilhe seu código</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/git</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web,Engenheiro Devops</t>
+  </si>
+  <si>
+    <t>Java e JPA: Persista seus objetos com JPA2  e Hibernate</t>
+  </si>
+  <si>
+    <t>Java e JPA2 I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/persistencia-de-objetos-com-jpa-hibernate</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web com Spring,Desenvolvedor Java Web Enterprise, Desenvolvimento web com Play! Framework</t>
+  </si>
+  <si>
+    <t>Java,JPA,Hibernate,JPQL</t>
+  </si>
+  <si>
+    <t>Java e JPA: Otimizações com JPA2 e Hibernate</t>
+  </si>
+  <si>
+    <t>Java e JPA2 II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jpa-avancado</t>
+  </si>
+  <si>
+    <t>Java e JSF I: Sua aplicação web com JSF2</t>
+  </si>
+  <si>
+    <t>Java e JSF I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jsf</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web Enterprise</t>
+  </si>
+  <si>
+    <t>Java,JSF,MVC,JPA,AJAX,Facelets</t>
+  </si>
+  <si>
+    <t>Java e JSF2 – II: Componentes ricos com Primefaces</t>
+  </si>
+  <si>
+    <t>Java e JSF2 II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jsf-primefaces</t>
+  </si>
+  <si>
+    <t>Java,JSF,JPA,Hibernate,Primefaces</t>
+  </si>
+  <si>
+    <t>Java e JSF2 – III: integração com CDI</t>
+  </si>
+  <si>
+    <t>Java e JSF2 III</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jsf-cdi</t>
+  </si>
+  <si>
+    <t>Java,JSF,JPA,Hibernate,CDI,Maven,EJB,Spring</t>
+  </si>
+  <si>
+    <t>Java EE parte 1: Crie sua loja online com CDI, JSF, JPA</t>
+  </si>
+  <si>
+    <t>Java EE parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/java-ee-webapp</t>
+  </si>
+  <si>
+    <t>Java,JSF,JPA,Hibernate,BeanValidation</t>
+  </si>
+  <si>
+    <t>Java EE parte 2: Sua loja online com HTML, REST e Cache</t>
+  </si>
+  <si>
+    <t>Java EE parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/java-ee-webapp-2</t>
+  </si>
+  <si>
+    <t>Java,JSF,JPA,Hibernate,JSON,JAX-RS,REST</t>
+  </si>
+  <si>
+    <t>Java EE parte 3: Finalizando sua loja com REST, JMS, JAAS e WebSockets</t>
+  </si>
+  <si>
+    <t>Java EE parte 3</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/java-ee-webapp-3</t>
+  </si>
+  <si>
+    <t>Java,JSF,JPA,Hibernate,JSON,XML,JMS,JAAS,WebSockets,WildFly</t>
+  </si>
+  <si>
+    <t>EJB: O poder da Java EE</t>
+  </si>
+  <si>
+    <t>EJB</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ejb</t>
+  </si>
+  <si>
+    <t>Java,EJB,JPA,Hibernate,JTA,Web Services,JAX-WS,WSDL,SOAP</t>
+  </si>
+  <si>
+    <t>Maven: Build do zero a web</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/maven-build-do-zero-a-web</t>
+  </si>
+  <si>
+    <t>Java,Maven,Eclipse</t>
+  </si>
+  <si>
+    <t>Spring MVC I: Criando aplicações web</t>
+  </si>
+  <si>
+    <t>Spring MVC I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/spring-mvc-1-criando-aplicacoes-web</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Java Web com Spring</t>
+  </si>
+  <si>
+    <t>Java,Spring MVC,JPA,Hibernate</t>
+  </si>
+  <si>
+    <t>Spring MVC II: integração, cache, segurança e templates</t>
+  </si>
+  <si>
+    <t>Spring MVC II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/springmvc-2-integracao-cache-seguranca-e-templates</t>
+  </si>
+  <si>
+    <t>Java,Spring MVC,JPA,Hibernate,JSON,Bootstrap</t>
+  </si>
+  <si>
+    <t>Spring Boot: Agilidade no desenvolvimento java com Spring</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/springboot</t>
+  </si>
+  <si>
+    <t>Java,Spring Boot,JPA,Hibernate</t>
+  </si>
+  <si>
+    <t>JAX-RS e Jersey: Domine a criação de webservices REST</t>
+  </si>
+  <si>
+    <t>JAX-RS e Jersey</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/webservices-rest-com-jaxrs-e-jersey</t>
+  </si>
+  <si>
+    <t>Expert em Integrações de Aplicações com java</t>
+  </si>
+  <si>
+    <t>Java,JAX-RS,Grizzly,JSON,HTTP,JAXB</t>
+  </si>
+  <si>
+    <t>JAX-WS: Domine a criação de webservices SOAP</t>
+  </si>
+  <si>
+    <t>JAX-WS</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/web-services-soap</t>
+  </si>
+  <si>
+    <t>Java,SOAP,WSDL</t>
+  </si>
+  <si>
+    <t>JMS e ActiveMQ: Mensageria com Java</t>
+  </si>
+  <si>
+    <t>JMS e ActiveMQ</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jms</t>
+  </si>
+  <si>
+    <t>Java,Mensageria,ActiveMQ,JMS,XML,DLQ</t>
+  </si>
+  <si>
+    <t>Apache Camel: O framework de integração entre sistemas</t>
+  </si>
+  <si>
+    <t>Apache Camel</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/camel</t>
+  </si>
+  <si>
+    <t>Java,Apache Camel,HTTP,XSLT,SOAP,JMS</t>
+  </si>
+  <si>
+    <t>Rest Assured: Testes automatizados de webservice</t>
+  </si>
+  <si>
+    <t>Rest Assured</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/rest-assured</t>
+  </si>
+  <si>
+    <t>Java,Rest Assured,JSON,Web Services,</t>
+  </si>
+  <si>
+    <t>Java Reflection: mágica e meta programação</t>
+  </si>
+  <si>
+    <t>Java Reflection</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/reflection-em-java</t>
+  </si>
+  <si>
+    <t>Avançando na Plataforma Java</t>
+  </si>
+  <si>
+    <t>Java,Reflection</t>
+  </si>
+  <si>
+    <t>Java e XML: integração, parsing e validação</t>
+  </si>
+  <si>
+    <t>Java e XML</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/xml-java</t>
+  </si>
+  <si>
+    <t>Java,XML,XSD,XSLT,JAXB</t>
+  </si>
+  <si>
+    <t>Threads 1: Programação paralela em Java</t>
+  </si>
+  <si>
+    <t>Threads 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/threads-java-1</t>
+  </si>
+  <si>
+    <t>Java,Threads</t>
+  </si>
+  <si>
+    <t>Threads 2: Programação concorrente avançada</t>
+  </si>
+  <si>
+    <t>Threads 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/threads-java-2</t>
+  </si>
+  <si>
+    <t>Java,Threads,Sockets</t>
+  </si>
+  <si>
+    <t>Eclipse: produtividade Extrema na IDE com Java</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/eclipse</t>
+  </si>
+  <si>
+    <t>Java,Eclipse</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA: aumente a sua produtividade em projetos java</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/intellij-idea-truques-para-aumentar-sua-produtividade-em-projetos-java</t>
+  </si>
+  <si>
+    <t>Java,IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>Design Patterns Java I: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns Java I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-patterns</t>
+  </si>
+  <si>
+    <t>Expert em Orientação a Objetos com java</t>
+  </si>
+  <si>
+    <t>Java,Design Patterns</t>
+  </si>
+  <si>
+    <t>Design Patterns Java II: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns Java II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-patterns-2</t>
+  </si>
+  <si>
+    <t>SOLID com Java: Orientação a Objetos com Java</t>
+  </si>
+  <si>
+    <t>SOLID com Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/orientacao-a-objetos-avancada-e-principios-solid</t>
+  </si>
+  <si>
+    <t>Java,SOLID</t>
+  </si>
+  <si>
+    <t>Testes: TDD com Java</t>
+  </si>
+  <si>
+    <t>TDD com Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/tdd</t>
+  </si>
+  <si>
+    <t>Java,Testes,TDD</t>
+  </si>
+  <si>
+    <t>Teste de Integração: Testes SQL e DAOs automatizados em Java</t>
+  </si>
+  <si>
+    <t>Teste de Integração com Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/teste-de-integracao</t>
+  </si>
+  <si>
+    <t>Java,Testes,Teste de Integração,Mock</t>
+  </si>
+  <si>
+    <t>C# I: Fundamentos da linguagem</t>
+  </si>
+  <si>
+    <t>C# I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/fundamentos-de-csharp</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Mobile Multiplataforma Xamarin,Desenvolvedor ASP.NET</t>
+  </si>
+  <si>
+    <t>C#,Visual Studio</t>
+  </si>
+  <si>
+    <t>C# II: Orientação a Objetos</t>
+  </si>
+  <si>
+    <t>C# II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/csharp-orientacao-a-objetos</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C# III: Lidando com exceções, manipulando arquivos e listas</t>
+  </si>
+  <si>
+    <t>C# III</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/csharp-topicos-avancados</t>
+  </si>
+  <si>
+    <t>Entity Framework Core: Banco de dados de forma eficiente</t>
+  </si>
+  <si>
+    <t>Entity Framework Core</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/entity-framework-core</t>
+  </si>
+  <si>
+    <t>Desenvolvedor ASP.NET,Desenvolvedor .Net com Entity Framework</t>
+  </si>
+  <si>
+    <t>C#,Entity Framework Core,SQL</t>
+  </si>
+  <si>
+    <t>ASP.NET MVC 5: O framework pronto para web</t>
+  </si>
+  <si>
+    <t>ASP.NET MVC 5</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/desenvolvimento-web-asp-net-mvc-5</t>
+  </si>
+  <si>
+    <t>Desenvolvedor ASP.NET</t>
+  </si>
+  <si>
+    <t>C#,ASP.NET,MVC,AJAX,Jquery,JSON,HTTP</t>
+  </si>
+  <si>
+    <t>Design Patterns C# I: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns C# I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-patterns-dotnet</t>
+  </si>
+  <si>
+    <t>Desenvolvedor .NET Erudito</t>
+  </si>
+  <si>
+    <t>C#,Design Patterns</t>
+  </si>
+  <si>
+    <t>Design Patterns C# II: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns C# II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-patterns-2-dot-net</t>
+  </si>
+  <si>
+    <t>SOLID com C#: Orientação a Objetos com C#</t>
+  </si>
+  <si>
+    <t>SOLID com C#</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/orientacao-a-objetos-avancada-e-principios-solid-csharp</t>
+  </si>
+  <si>
+    <t>C#,SOLID</t>
+  </si>
+  <si>
+    <t>Testes: TDD com C#</t>
+  </si>
+  <si>
+    <t>TDD com C#</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/test-driven-development-tdd-dotnet</t>
+  </si>
+  <si>
+    <t>C#,Testes,TDD</t>
+  </si>
+  <si>
+    <t>C# Reflection parte 1: Metadados do seu código .NET</t>
+  </si>
+  <si>
+    <t>C# Reflection</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/reflection-parte-1</t>
+  </si>
+  <si>
+    <t>C#,Reflection</t>
+  </si>
+  <si>
+    <t>SQLServer I: desvendando o banco de dados</t>
+  </si>
+  <si>
+    <t>SQLServer I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/sqlserver</t>
+  </si>
+  <si>
+    <t>Desenvolvedor .Net com Entity Framework</t>
+  </si>
+  <si>
+    <t>SQLServer,SQL</t>
+  </si>
+  <si>
+    <t>Entity Framework: Banco de dados de forma eficiente</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/entity-framework</t>
+  </si>
+  <si>
+    <t>C#,Entity Framework,SQLServer,SQL</t>
+  </si>
+  <si>
+    <t>Entity LinQ parte 1: Crie queries poderosas em C#</t>
+  </si>
+  <si>
+    <t>Entity LinQ parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/linq-c-sharp</t>
+  </si>
+  <si>
+    <t>C#,Entity LinQ,SqlServer,SQL,XML</t>
+  </si>
+  <si>
+    <t>Entity LinQ parte 2: Store procedures e consultas com LinQPad</t>
+  </si>
+  <si>
+    <t>Entity LinQ parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/linq-c-sharp-parte-2</t>
+  </si>
+  <si>
+    <t>C#,Entity LinQ,SQLServer,SQL</t>
+  </si>
+  <si>
+    <t>Entity Framework Core parte 1: Mapeando um banco pré-existente</t>
+  </si>
+  <si>
+    <t>Entity Framework Core parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/entity-framework-core-banco-pre-existente-parte1</t>
+  </si>
+  <si>
+    <t>C#,Entity Framework Core,SQLServer,SQL</t>
+  </si>
+  <si>
+    <t>Entity Framework Core parte 2: Mapeando um banco pré-existente</t>
+  </si>
+  <si>
+    <t>Entity Framework Core parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/entity-framework-core-banco-pre-existente-parte2</t>
+  </si>
+  <si>
+    <t>PHP e MySQL I: Fundamentos para criar um sistema na Web</t>
+  </si>
+  <si>
+    <t>PHP e MySQL I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/php-mysql-e-fundamentos-da-web</t>
+  </si>
+  <si>
+    <t>Iniciante Back-end PHP,Desenvolvedor Wordpress</t>
+  </si>
+  <si>
+    <t>PHP,MySQL,SQL,HTML,HTTP</t>
+  </si>
+  <si>
+    <t>PHP e MySQL II: Cookies, sessões e mais recursos</t>
+  </si>
+  <si>
+    <t>PHP e MySQL II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/php-mysql-e-fundamentos-da-web-parte-2</t>
+  </si>
+  <si>
+    <t>Iniciante Back-end PHP</t>
+  </si>
+  <si>
+    <t>PHP,MySQL,SQL,HTML,HTTP,SMTP</t>
+  </si>
+  <si>
+    <t>PHP I: Orientação a objetos com sua linguagem preferida</t>
+  </si>
+  <si>
+    <t>PHP I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/php-oo-1</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>PHP II: Avançando com Orientação a objetos</t>
+  </si>
+  <si>
+    <t>PHP II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/php-oo-2</t>
+  </si>
+  <si>
+    <t>Design Patterns PHP I: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns PHP I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-pattern-php</t>
+  </si>
+  <si>
+    <t>Desenvolvedor PHP Erudito</t>
+  </si>
+  <si>
+    <t>PHP,Design Patterns</t>
+  </si>
+  <si>
+    <t>Design Patterns PHP II: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns PHP II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-patterns-php-2</t>
+  </si>
+  <si>
+    <t>SOLID com PHP: Orientação a Objetos com PHP</t>
+  </si>
+  <si>
+    <t>SOLID com PHP</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/orientacao-a-objetos-avancada-e-principios-solid-php</t>
+  </si>
+  <si>
+    <t>PHP,SOLID</t>
+  </si>
+  <si>
+    <t>Testes: TDD com PHP</t>
+  </si>
+  <si>
+    <t>TDD com PHP</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/testes-com-php-unit</t>
+  </si>
+  <si>
+    <t>PHP,Testes,TDD</t>
+  </si>
+  <si>
+    <t>Python 2: Programando com a linguagem</t>
+  </si>
+  <si>
+    <t>Python 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-ao-python</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Python</t>
+  </si>
+  <si>
+    <t>Python,Python 2</t>
+  </si>
+  <si>
+    <t>Python 3 parte 1: Introdução à nova versão da linguagem</t>
+  </si>
+  <si>
+    <t>Python 3 parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/python-3-introducao-a-nova-versao-da-linguagem</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Python,Desenvolvedor Web com Flask</t>
+  </si>
+  <si>
+    <t>Python,Python 3</t>
+  </si>
+  <si>
+    <t>Python 3 parte 2: Avançando na linguagem</t>
+  </si>
+  <si>
+    <t>Python 3 parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/python-3-avancando-na-linguagem</t>
+  </si>
+  <si>
+    <t>Python 3: introdução a Orientação a objetos</t>
+  </si>
+  <si>
+    <t>Python 3 OO</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/python-3-intro-orientacao-objetos</t>
+  </si>
+  <si>
+    <t>Django: programação web com Python e simplicidade</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-ao-django</t>
+  </si>
+  <si>
+    <t>Python,Django,HTML,HTTP,SQL</t>
+  </si>
+  <si>
+    <t>Design Patterns Python I: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns Python I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-patterns-python</t>
+  </si>
+  <si>
+    <t>Python,Design Patterns</t>
+  </si>
+  <si>
+    <t>Design Patterns Python II: Boas práticas de programação</t>
+  </si>
+  <si>
+    <t>Design Patterns Python II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/design-patterns-python-2</t>
+  </si>
+  <si>
+    <t>Ruby I: Introdução a lógica de programação com jogos</t>
+  </si>
+  <si>
+    <t>Ruby I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-a-programacao-com-ruby-e-jogos-1</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Ruby on Rails</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Ruby II: Continuando seus primeiros passos na programação</t>
+  </si>
+  <si>
+    <t>Ruby II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-a-programacao-com-ruby-e-jogos-2</t>
+  </si>
+  <si>
+    <t>Ruby III: Mais lógica de programação em um novo jogo</t>
+  </si>
+  <si>
+    <t>Ruby III</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-a-programacao-com-ruby-e-jogos-3</t>
+  </si>
+  <si>
+    <t>Ruby on Rails 4: do zero à web</t>
+  </si>
+  <si>
+    <t>Ruby on Rails 4</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ruby-on-rails-4-do-zero</t>
+  </si>
+  <si>
+    <t>Ruby,MVC,HTML,HTTP,Bootstrap</t>
+  </si>
+  <si>
+    <t>Orientação a Objetos: Melhores técnicas com Ruby</t>
+  </si>
+  <si>
+    <t>Orientação a Objetos</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/orientacao-objetos-ruby</t>
+  </si>
+  <si>
+    <t>Wordpress I: hospedagem, administração e widgets</t>
+  </si>
+  <si>
+    <t>Wordpress I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/wordpress-hospedagem-administracao-widgets</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Wordpress</t>
+  </si>
+  <si>
+    <t>Wordpress,HTML,CSS</t>
+  </si>
+  <si>
+    <t>Wordpress II: páginas, temas e boas práticas</t>
+  </si>
+  <si>
+    <t>Wordpress II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/wordpress-paginas-temas-boas-praticas</t>
+  </si>
+  <si>
+    <t>Wordpress: Criação de um tema do zero</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/wordpress-criacao-tema-zero</t>
+  </si>
+  <si>
+    <t>Wordpress,HTML,CSS,PHP</t>
+  </si>
+  <si>
+    <t>SEO Wordpress: Otimize o ranqueamento do seu site</t>
+  </si>
+  <si>
+    <t>SEO Wordpress</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/seo-wordpress</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Wordpress,SEO Expert</t>
+  </si>
+  <si>
+    <t>Wordpress,HTTP</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: O Básico de Java</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-basico</t>
+  </si>
+  <si>
+    <t>Certificação Java OCJP I</t>
+  </si>
+  <si>
+    <t>Java,Certificação</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Tipos de Dados</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-tipos-de-dados</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Operadores</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-operadores-decisao</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Criando e usando Arrays</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-usando-arrays</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Laços</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-loops</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Métodos e encapsulamento</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-metodos-encapsulamento</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Relações entre classes</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-heranca</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Lidando com exceções</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-excecoes</t>
+  </si>
+  <si>
+    <t>Certificação Java SE 7 Programmer I: Conteúdo além da prova</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/certificacao-java-lambdas-api-de-datas</t>
+  </si>
+  <si>
+    <t>Estatística I: Entenda seus dados com R</t>
+  </si>
+  <si>
+    <t>Estatística I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-a-estatistica-1</t>
+  </si>
+  <si>
+    <t>Inteligência Artificial iniciante</t>
+  </si>
+  <si>
+    <t>Estatística,R</t>
+  </si>
+  <si>
+    <t>Estatística II: Aprofundando em hipóteses e correlações</t>
+  </si>
+  <si>
+    <t>Estatística II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-a-estatistica-2</t>
+  </si>
+  <si>
+    <t>Machine Learning: Introdução a classificação</t>
+  </si>
+  <si>
+    <t>Machine Learning I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/introducao-a-machine-learning-com-classificacao</t>
+  </si>
+  <si>
+    <t>Machine Learning,Python,CSV</t>
+  </si>
+  <si>
+    <t>Machine Learning II: Avançando com tipos diferentes de classificação</t>
+  </si>
+  <si>
+    <t>Machine Learning II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/machine-learning-classificacao-ii</t>
+  </si>
+  <si>
+    <t>Machine Learning: Introdução ao sistemas de recomendações</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/machine-learning-introducao-aos-sistemas-de-recomendacoes</t>
+  </si>
+  <si>
+    <t>Machine learning,Java</t>
+  </si>
+  <si>
+    <t>Chatbot parte 1: Começando com as conversas inteligentes usando o Watson</t>
+  </si>
+  <si>
+    <t>Chatbot parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/chatbot-watson-conversation</t>
+  </si>
+  <si>
+    <t>Chatbot,Watson</t>
+  </si>
+  <si>
+    <t>Chatbot parte 2: Avançando e integrando o bot</t>
+  </si>
+  <si>
+    <t>Chatbot parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/chatbot-parte-2-comunicando-sua-app-com-o-bot</t>
+  </si>
+  <si>
+    <t>Cocos Creator parte 1: Simplificando o desenvolvimento de jogos para Web</t>
+  </si>
+  <si>
+    <t>Cocos Creator parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/cocos-creator</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de jogos com Cocos Creator</t>
+  </si>
+  <si>
+    <t>Cocos Creator,JavaScript</t>
+  </si>
+  <si>
+    <t>Cocos Creator parte 2: Aprimore os conhecimentos com a engine</t>
+  </si>
+  <si>
+    <t>Cocos Creator parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/cocos-creator-parte2</t>
+  </si>
+  <si>
+    <t>Unity parte 1: Criação de um jogo de sobrevivência à zumbis para Web</t>
+  </si>
+  <si>
+    <t>Unity parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/criacao-de-jogos-com-unity</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de jogos com Unity</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Unity parte 2: Iluminação, interface e boas práticas</t>
+  </si>
+  <si>
+    <t>Unity parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/criacao-de-jogos-com-unity-2</t>
+  </si>
+  <si>
+    <t>Arduino: Do zero ao jogo</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/arduino</t>
+  </si>
+  <si>
+    <t>Embarcados e internet das Coisas,Internet das Coisas</t>
+  </si>
+  <si>
+    <t>Arduino,IoT</t>
+  </si>
+  <si>
+    <t>Arduino: Introdução à Robótica</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/arduino-robotica</t>
+  </si>
+  <si>
+    <t>Arduino,Robótica,IoT</t>
+  </si>
+  <si>
+    <t>Internet das Coisas: Medindo e publicando dados com NodeMcu e MQTT</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/iot-com-nodemcu</t>
+  </si>
+  <si>
+    <t>IoT,NodeMcu,MQTT,IoT</t>
+  </si>
+  <si>
+    <t>Internet das Coisas: Controle seu ambiente com Amazon Alexa</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/iot-amazon-alexa</t>
+  </si>
+  <si>
+    <t>Amazon Alexa,Raspberry Pi,NodeMcu,IoT</t>
+  </si>
+  <si>
+    <t>Internet das Coisas: Conecte dispositivos à nuvem com Amazon IoT</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/amazon-iot</t>
+  </si>
+  <si>
+    <t>Embarcados e Intermet das Coisas</t>
+  </si>
+  <si>
+    <t>Amazon IoT,DynamoDB,IoT</t>
+  </si>
+  <si>
+    <t>Raspberry Pi: Da instalação ao Media Center</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/raspberrypi-da-instalacao-ao-media-center</t>
+  </si>
+  <si>
+    <t>Embarcados e Intermet das Coisas,Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Raspberry Pi,Robótica,IoT,RetroPie,Python</t>
+  </si>
+  <si>
+    <t>Raspberry Pi: Controlando o mundo com GPIO</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/raspberrypi-controlando-o-mundo-com-gpio</t>
+  </si>
+  <si>
+    <t>Raspberry Pi,Robótica,IoT,GPIO,Python</t>
+  </si>
+  <si>
+    <t>Raspberry Pi: carro espião com câmera, wifi e sensor</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/raspberrypi-carro-espiao-com-camera-wifi-e-sensor</t>
+  </si>
+  <si>
+    <t>Raspberry Pi,Robótica,IoT,Python,Flask</t>
+  </si>
+  <si>
+    <t>Flask parte 1: Crie uma webapp com Python 3</t>
+  </si>
+  <si>
+    <t>Flask parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/flask-rotas-templates-autenticacao</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Web com Flask</t>
+  </si>
+  <si>
+    <t>Python,Flask,HTTP,HTML</t>
+  </si>
+  <si>
+    <t>Flask parte 2: Avançando no desenvolvimento web</t>
+  </si>
+  <si>
+    <t>Flask parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/flask-upload-persistencia-javascript-jquery</t>
+  </si>
+  <si>
+    <t>Python,Flask,HTTP,HTML,JavaScript,MySQL,SQL</t>
+  </si>
+  <si>
+    <t>Play! Framework I: Crie webapps de modo rápido e fácil</t>
+  </si>
+  <si>
+    <t>Play! Framework I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/play-api</t>
+  </si>
+  <si>
+    <t>Desenvolvedor web com Play! Framework</t>
+  </si>
+  <si>
+    <t>Java,HTTP,MySQl,SQL.HTML.Bootstrap</t>
+  </si>
+  <si>
+    <t>Play! Framework II: Envie e-mails e desenvolva sistemas de autenticação e segurança</t>
+  </si>
+  <si>
+    <t>Play! Framework II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/play-seguranca</t>
+  </si>
+  <si>
+    <t>Expressões regulares: Capturando textos de forma mágica</t>
+  </si>
+  <si>
+    <t>Expressões regulares</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/expressoes-regulares</t>
+  </si>
+  <si>
+    <t>Desenvolvedor JavaScript</t>
+  </si>
+  <si>
+    <t>jQuery: Domine a biblioteca mais popular do mercado</t>
+  </si>
+  <si>
+    <t>jQuery parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jquery-a-biblioteca-do-mercado</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Front-end,Desenvolvedor JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Jquery</t>
+  </si>
+  <si>
+    <t>jQuery: Avance na biblioteca mais popular do mercado parte 2</t>
+  </si>
+  <si>
+    <t>jQuery parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/jquery-a-biblioteca-do-mercado-parte-2</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Jquery,AJAX.HTTP</t>
+  </si>
+  <si>
+    <t>JavaScript: Projeto de conclusão</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/projeto-carreira-javascript</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Jquery,AJAx,HTTP</t>
+  </si>
+  <si>
+    <t>JavaScript avançado I: ES6, orientação a objetos e padrões de projetos</t>
+  </si>
+  <si>
+    <t>JavaScript Avançado I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/javascript-es6-orientacao-a-objetos-parte-1</t>
+  </si>
+  <si>
+    <t>Programador React,Programador Angular2,Engenheiro JavaScript,Desenvolvedor Typescript</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS</t>
+  </si>
+  <si>
+    <t>JavaScript Avançado II: ES6, orietanção a objetos e padrões de projetos</t>
+  </si>
+  <si>
+    <t>JavaScript Avançado II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/javascript-es6-orientacao-a-objetos-parte-2</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,HTTP,AJAX</t>
+  </si>
+  <si>
+    <t>JavaScript Avançado III: ES6, orientação a objetos e padrões de projetos</t>
+  </si>
+  <si>
+    <t>JavaScript Avançado III</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/javascript-es6-orientacao-a-objetos-parte-3</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,HTTP,AJAX,IndexDB,Babel</t>
+  </si>
+  <si>
+    <t>Jasmine: Testes automatizados em JavaScript</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/testes-automatizados-em-javascript-com-jasmine</t>
+  </si>
+  <si>
+    <t>Engenheiro JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript,Testes,TDD,Jasmine</t>
+  </si>
+  <si>
+    <t>Progressive Web Apps: crie apps offline</t>
+  </si>
+  <si>
+    <t>Progressive Web Apps</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/progressive-webapp-offline</t>
+  </si>
+  <si>
+    <t>JavaScript,Progressive Web Apps,</t>
+  </si>
+  <si>
+    <t>Web Design Responsivo: Páginas que se adptam do mobile ao desk</t>
+  </si>
+  <si>
+    <t>Web Design Responsivo</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/web-design-responsivo</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Front-end,Email marketing</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Web Design Responsivo</t>
+  </si>
+  <si>
+    <t>Front-end: Projeto de conclusão</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/projeto-carreira-front-end</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Front-end</t>
+  </si>
+  <si>
+    <t>Gulp: automação de tarefas front-end</t>
+  </si>
+  <si>
+    <t>Gulp</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/gulp</t>
+  </si>
+  <si>
+    <t>Engenheiro Front-end</t>
+  </si>
+  <si>
+    <t>JavaScript,Gulp</t>
+  </si>
+  <si>
+    <t>Performance Web I: otimizando o front-end</t>
+  </si>
+  <si>
+    <t>Performance Web I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/otimizacao-performance-web</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,HTTP</t>
+  </si>
+  <si>
+    <t>Performance Web II: Critical Path, HTTP/2 e Resource Hints</t>
+  </si>
+  <si>
+    <t>Performance Web II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/performance-http2-critical-path</t>
+  </si>
+  <si>
+    <t>Sass e Compass: Descomplicando o CSS</t>
+  </si>
+  <si>
+    <t>Sass e Compass</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/sass</t>
+  </si>
+  <si>
+    <t>HTML,CSS,HTTP.Sass,Compass</t>
+  </si>
+  <si>
+    <t>Bootstrap: criação de uma single-page responsiva</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/bootstrap-criacao-single-page-responsiva</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,Bootstrap</t>
+  </si>
+  <si>
+    <t>Chrome DevTools: analise, inspecione e depure suas páginas Web</t>
+  </si>
+  <si>
+    <t>Chrome DevTools</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/chrome-devtools</t>
+  </si>
+  <si>
+    <t>JavaScript,HTML,CSS,HTTP,Chrome Dev Tools</t>
+  </si>
+  <si>
+    <t>Angular 1: crie webapss poderosas</t>
+  </si>
+  <si>
+    <t>Angular 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/angularjs-mvc</t>
+  </si>
+  <si>
+    <t>Desenvolvedor FullStack MEAN,Programador Angular 1</t>
+  </si>
+  <si>
+    <t>JavaScript,MVC,HTML,HTTP,Angular 1</t>
+  </si>
+  <si>
+    <t>Node.js: Inovando com Javascript no backend</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/node-js</t>
+  </si>
+  <si>
+    <t>Desenvolvedor FullStack MEAN,Desenvolvedor Node.js</t>
+  </si>
+  <si>
+    <t>JavaScript,Node.js,HTTP,Web Sockets,Testes</t>
+  </si>
+  <si>
+    <t>MongoDB: Uma alternativa aos bancos relacionais tradicionais</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/mongodb</t>
+  </si>
+  <si>
+    <t>MongoDB,NoSQL</t>
+  </si>
+  <si>
+    <t>Node.js e HTTP: desenvolvendo uma API seguindo o estilo REST</t>
+  </si>
+  <si>
+    <t>Node.js e HTTP</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/nodejs-avancado</t>
+  </si>
+  <si>
+    <t>JavaScript,Node.js,HTTP,MySQL,REST,SOAP</t>
+  </si>
+  <si>
+    <t>MEAN Stack: criando aplicações completas com Javascript</t>
+  </si>
+  <si>
+    <t>MEAN Stack</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/mean-javascript</t>
+  </si>
+  <si>
+    <t>Desenvolvedor FullStack MEAN</t>
+  </si>
+  <si>
+    <t>JavaScript,Angular,MongoDB,Express,Node.js</t>
+  </si>
+  <si>
+    <t>Webpack:Manipulando módulos na sua webapp</t>
+  </si>
+  <si>
+    <t>Webpack</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/webpack</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Vue.js,Programador react,Programador Angular 2</t>
+  </si>
+  <si>
+    <t>Angular 2: webapps ainda mais poderosas</t>
+  </si>
+  <si>
+    <t>Angular 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/angular2-parte1</t>
+  </si>
+  <si>
+    <t>Programador Angular 2,Programador Ionic</t>
+  </si>
+  <si>
+    <t>JavaScript,Angular 2</t>
+  </si>
+  <si>
+    <t>Angular 2: webapps ainda mais poderosas parte 2</t>
+  </si>
+  <si>
+    <t>Angular 2 parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/angular2-parte2</t>
+  </si>
+  <si>
+    <t>Programador Angular 2</t>
+  </si>
+  <si>
+    <t>JavaScript,Angular 2,Jquery,TypeScript,</t>
+  </si>
+  <si>
+    <t>React parte 1: componentes reutilizáveis para sua webapp</t>
+  </si>
+  <si>
+    <t>React parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/react</t>
+  </si>
+  <si>
+    <t>Programador React</t>
+  </si>
+  <si>
+    <t>React,JavaScript,HTML,CSS</t>
+  </si>
+  <si>
+    <t>React parte 2: Container components e o ciclo de vida do react</t>
+  </si>
+  <si>
+    <t>React parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/react-parte-2</t>
+  </si>
+  <si>
+    <t>React,JavaScript,HTML,CSS,JWT</t>
+  </si>
+  <si>
+    <t>React parte 3: A arquitetura flux, implementação do Redux e server side rendering</t>
+  </si>
+  <si>
+    <t>React parte 3</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/react-parte-3</t>
+  </si>
+  <si>
+    <t>React,JavaScript,HTML,CSS,Redux</t>
+  </si>
+  <si>
+    <t>Vue.js parte 1: construindo Single Page Applications</t>
+  </si>
+  <si>
+    <t>Vue.js parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/vue-parte1</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Vue.js</t>
+  </si>
+  <si>
+    <t>Vue.js,JavaScript,Babel,Webpack,</t>
+  </si>
+  <si>
+    <t>Vue.js parte 2: contruindo Single Page Applications</t>
+  </si>
+  <si>
+    <t>Vue.js parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/vue-parte2</t>
+  </si>
+  <si>
+    <t>Vue.js,JavaScript,CSS,SASS</t>
+  </si>
+  <si>
+    <t>TypeScript parte 1: Evoluindo seu JavaScript</t>
+  </si>
+  <si>
+    <t>TypeScript parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/typescript-parte1</t>
+  </si>
+  <si>
+    <t>Desenvolvedor TypeScript</t>
+  </si>
+  <si>
+    <t>JavaScript,TypeScript,Jquery</t>
+  </si>
+  <si>
+    <t>TypeScript parte 2: Mais técnicas e boas práticas</t>
+  </si>
+  <si>
+    <t>TypeScript parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/typescript-parte2</t>
+  </si>
+  <si>
+    <t>Android I: Crie sua App fantástica com Android Studio</t>
+  </si>
+  <si>
+    <t>Android I</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-studio</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Android</t>
+  </si>
+  <si>
+    <t>Android,Android Studio,Java</t>
+  </si>
+  <si>
+    <t>Android II: Integração com apps e recursos do device</t>
+  </si>
+  <si>
+    <t>Android II</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-studio-ii-integracoes-e-recursos</t>
+  </si>
+  <si>
+    <t>Andriod,Android Studio,Java</t>
+  </si>
+  <si>
+    <t>Andorid III: Aprimore sua app com Fragments, Google Maps e GPS</t>
+  </si>
+  <si>
+    <t>Android III</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-studio-iii-fragments-maps-gps</t>
+  </si>
+  <si>
+    <t>Android,Android Studio,Java,Fragments</t>
+  </si>
+  <si>
+    <t>Jogos com Android: Desenvolva seu próprio Flappy bird</t>
+  </si>
+  <si>
+    <t>Jogos com Adroid</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/desenvolvendo-jogos-em-android</t>
+  </si>
+  <si>
+    <t>Android com WebService parte 1: Sincronize sua app com o servidor</t>
+  </si>
+  <si>
+    <t>Android com WebServices parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-sincronizacao-com-servidor</t>
+  </si>
+  <si>
+    <t>Android,Android Studio,Java,Retrofit,Migration,UUID</t>
+  </si>
+  <si>
+    <t>Android com WebService parte 2: mais técnicas de sincronixação</t>
+  </si>
+  <si>
+    <t>Android com WebServices parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-sincronizacao-com-servidor-parte-2</t>
+  </si>
+  <si>
+    <t>Android com WebService parte3: sincronização em modo offline</t>
+  </si>
+  <si>
+    <t>Android com WebServices parte 3</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-sincronizacao-com-servidor-parte-3</t>
+  </si>
+  <si>
+    <t>Swift 3: desenvolvendo para iOS no Xcode parte 1</t>
+  </si>
+  <si>
+    <t>Swift 3 parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/desenvolvimento-em-swift-3-para-ios-parte1</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Apple Mobile iOS</t>
+  </si>
+  <si>
+    <t>Swift,iOS,Xcode</t>
+  </si>
+  <si>
+    <t>Swift 3: desenvolvendo para iOS no Xcode parte 2</t>
+  </si>
+  <si>
+    <t>Swift 3 parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/desenvolvimento-em-swift-3-para-ios-parte2</t>
+  </si>
+  <si>
+    <t>Swift 3: desenvolvendo para iOS no Xcode parte 3</t>
+  </si>
+  <si>
+    <t>Swift 3 parte 3</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/desenvolvimento-em-swift-3-para-ios-parte3</t>
+  </si>
+  <si>
+    <t>iOS Brasil: formate datas, cpfs e números nacionais</t>
+  </si>
+  <si>
+    <t>iOS Brasil</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/iosbrasil</t>
+  </si>
+  <si>
+    <t>iOS layout parte 1: Começando com telas responsivas</t>
+  </si>
+  <si>
+    <t>iOS layout parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ios-layout</t>
+  </si>
+  <si>
+    <t>iOS layout parte 2: Mais recursos para criar telas responsivas</t>
+  </si>
+  <si>
+    <t>iOS layout parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ios-layout-parte2</t>
+  </si>
+  <si>
+    <t>iOS parte 1: Usando recursos nativos</t>
+  </si>
+  <si>
+    <t>iOS layout parte 3</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ios-recursos-nativo</t>
+  </si>
+  <si>
+    <t>Swift,iOS,Xcode,Core Data,HTTP</t>
+  </si>
+  <si>
+    <t>Kotlin parte 1: Sua primeira app android na linguagem</t>
+  </si>
+  <si>
+    <t>Kotlin parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-com-kotlin-parte-1</t>
+  </si>
+  <si>
+    <t>Desenvolvimento mobile com Kotlin</t>
+  </si>
+  <si>
+    <t>Kotlin,Android Studio,Android</t>
+  </si>
+  <si>
+    <t>Kotlin parte 2 mais recursos da linguagem e boas práticas</t>
+  </si>
+  <si>
+    <t>Kotlin parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-com-kotlin-parte-2</t>
+  </si>
+  <si>
+    <t>Kotlin parte 3: Técnicas avançadas na sua app</t>
+  </si>
+  <si>
+    <t>Kotlin parte 3</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/android-kotlin-parte-3</t>
+  </si>
+  <si>
+    <t>Cordova &amp; PhoneGap: Apps mobile com HTML, CSS e JS</t>
+  </si>
+  <si>
+    <t>Cordova &amp; PhoneGap</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/cordova-phonegap</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Mobile Multiplataforma Cordova</t>
+  </si>
+  <si>
+    <t>JavaScript,Cordova,honeGap,PHTML,CSS,Android,iOS,REST,AJAX</t>
+  </si>
+  <si>
+    <t>Xamarin parte 1: crie aplicativos mobile com Visual Studio</t>
+  </si>
+  <si>
+    <t>Xamarin parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/xamarin-aplicativos-mobile-com-visual-studio-parte-1</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Mobile Multiplataforma Xamarin</t>
+  </si>
+  <si>
+    <t>Xamarin,C#,Visual Studio</t>
+  </si>
+  <si>
+    <t>Xamarin parte 2: crie aplicativos mobile com Visual Studio</t>
+  </si>
+  <si>
+    <t>Xamarin parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/xamarin-aplicativos-mobile-com-visual-studio-parte-2</t>
+  </si>
+  <si>
+    <t>Xamarin,C#,Visual Studio,HTTP,REST</t>
+  </si>
+  <si>
+    <t>Xamarin parte 3: crie aplicativos mobile com Visual Studio</t>
+  </si>
+  <si>
+    <t>Xamarin parte 3</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/xamarin-aplicativos-mobile-com-visual-studio-parte-3</t>
+  </si>
+  <si>
+    <t>Xamarin,C#,Visual Studio,HTTP</t>
+  </si>
+  <si>
+    <t>Xamarin parte 4: crie aplicativos mobile com Visual Studio</t>
+  </si>
+  <si>
+    <t>Xamarin parte 4</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/xamarin-aplicativos-mobile-com-visual-studio-parte-4</t>
+  </si>
+  <si>
+    <t>Xamarin,C#,Visual Studio,SQLite</t>
+  </si>
+  <si>
+    <t>Ionic 2 parte 1: aplicações híbridas mobile ainda mais poderosas</t>
+  </si>
+  <si>
+    <t>Ionic 2 parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ionic2-parte1</t>
+  </si>
+  <si>
+    <t>Programador Ionic</t>
+  </si>
+  <si>
+    <t>Ionic,Angular,HTTP</t>
+  </si>
+  <si>
+    <t>Ionic 2 parte 2: aplicações híbridas mobile ainda mais poderosas</t>
+  </si>
+  <si>
+    <t>Ionic 2 parte 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ionic2-parte2</t>
+  </si>
+  <si>
+    <t>Ionic,Angular,HTTP,Andorid,iOS</t>
+  </si>
+  <si>
+    <t>Ionic 3 parte 1: aplicações híbridas mobile ainda mais poderosas</t>
+  </si>
+  <si>
+    <t>Ionic 3 parte 1</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/course/ionic3-parte1</t>
   </si>
 </sst>
 </file>
@@ -1608,13 +2074,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1630,12 +2097,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1680,21 +2141,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1703,6 +2152,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1722,10 +2175,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C135" activeCellId="0" sqref="C135"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A175" activeCellId="0" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1958,19 +2411,19 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1978,19 +2431,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1998,13 +2451,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2015,19 +2468,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2035,22 +2488,22 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2067,10 +2520,10 @@
       <c r="D17" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2087,10 +2540,10 @@
       <c r="D18" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2107,10 +2560,10 @@
       <c r="D19" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2127,10 +2580,10 @@
       <c r="D20" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2147,10 +2600,10 @@
       <c r="D21" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2167,10 +2620,10 @@
       <c r="D22" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2187,10 +2640,10 @@
       <c r="D23" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2207,10 +2660,10 @@
       <c r="D24" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2227,10 +2680,10 @@
       <c r="D25" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2247,10 +2700,10 @@
       <c r="D26" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2267,10 +2720,10 @@
       <c r="D27" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2287,10 +2740,10 @@
       <c r="D28" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2307,10 +2760,10 @@
       <c r="D29" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2327,10 +2780,10 @@
       <c r="D30" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2347,10 +2800,10 @@
       <c r="D31" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2367,10 +2820,10 @@
       <c r="D32" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2387,10 +2840,10 @@
       <c r="D33" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2407,10 +2860,10 @@
       <c r="D34" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2427,10 +2880,10 @@
       <c r="D35" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2447,10 +2900,10 @@
       <c r="D36" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2470,7 +2923,7 @@
       <c r="E37" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4432,6 +4885,786 @@
       </c>
       <c r="F135" s="0" t="s">
         <v>526</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/cursos.xlsx
+++ b/cursos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="681">
   <si>
     <t>Lógica de Programação I: Os primeiros programas com JavaScript e HTML</t>
   </si>
@@ -221,7 +221,7 @@
     <t>https://cursos.alura.com.br/course/persistencia-de-objetos-com-jpa-hibernate</t>
   </si>
   <si>
-    <t>Desenvolvedor Java Web com Spring,Desenvolvedor Java Web Enterprise, Desenvolvimento web com Play! Framework</t>
+    <t>Desenvolvedor Java Web com Spring,Desenvolvedor Java Web Enterprise,Desenvolvimento web com Play! Framework</t>
   </si>
   <si>
     <t>Java,JPA,Hibernate,JPQL</t>
@@ -635,7 +635,7 @@
     <t>Desenvolvedor ASP.NET</t>
   </si>
   <si>
-    <t>C#,ASP.NET,MVC,AJAX,Jquery,JSON,HTTP</t>
+    <t>C#,ASP .NET,MVC,AJAX,Jquery,JSON,HTTP</t>
   </si>
   <si>
     <t>Design Patterns C# I: Boas práticas de programação</t>
@@ -881,7 +881,7 @@
     <t>Desenvolvedor Python</t>
   </si>
   <si>
-    <t>Python,Python 2</t>
+    <t>Python</t>
   </si>
   <si>
     <t>Python 3 parte 1: Introdução à nova versão da linguagem</t>
@@ -896,9 +896,6 @@
     <t>Desenvolvedor Python,Desenvolvedor Web com Flask</t>
   </si>
   <si>
-    <t>Python,Python 3</t>
-  </si>
-  <si>
     <t>Python 3 parte 2: Avançando na linguagem</t>
   </si>
   <si>
@@ -1169,7 +1166,7 @@
     <t>https://cursos.alura.com.br/course/machine-learning-introducao-aos-sistemas-de-recomendacoes</t>
   </si>
   <si>
-    <t>Machine learning,Java</t>
+    <t>Machine Learning,Java</t>
   </si>
   <si>
     <t>Chatbot parte 1: Começando com as conversas inteligentes usando o Watson</t>
@@ -1268,6 +1265,9 @@
     <t>https://cursos.alura.com.br/course/iot-com-nodemcu</t>
   </si>
   <si>
+    <t>Embarcados e Internet das Coisas</t>
+  </si>
+  <si>
     <t>IoT,NodeMcu,MQTT,IoT</t>
   </si>
   <si>
@@ -1286,9 +1286,6 @@
     <t>https://cursos.alura.com.br/course/amazon-iot</t>
   </si>
   <si>
-    <t>Embarcados e Intermet das Coisas</t>
-  </si>
-  <si>
     <t>Amazon IoT,DynamoDB,IoT</t>
   </si>
   <si>
@@ -1298,7 +1295,7 @@
     <t>https://cursos.alura.com.br/course/raspberrypi-da-instalacao-ao-media-center</t>
   </si>
   <si>
-    <t>Embarcados e Intermet das Coisas,Raspberry Pi</t>
+    <t>Internet das Coisas,Raspberry Pi</t>
   </si>
   <si>
     <t>Raspberry Pi,Robótica,IoT,RetroPie,Python</t>
@@ -1310,6 +1307,9 @@
     <t>https://cursos.alura.com.br/course/raspberrypi-controlando-o-mundo-com-gpio</t>
   </si>
   <si>
+    <t>Embarcados e Internet das Coisas,Raspberry Pi</t>
+  </si>
+  <si>
     <t>Raspberry Pi,Robótica,IoT,GPIO,Python</t>
   </si>
   <si>
@@ -1358,10 +1358,10 @@
     <t>https://cursos.alura.com.br/course/play-api</t>
   </si>
   <si>
-    <t>Desenvolvedor web com Play! Framework</t>
-  </si>
-  <si>
-    <t>Java,HTTP,MySQl,SQL.HTML.Bootstrap</t>
+    <t>Desenvolvimento web com Play! Framework</t>
+  </si>
+  <si>
+    <t>Java,HTTP,MySQl,SQL,HTML,Bootstrap</t>
   </si>
   <si>
     <t>Play! Framework II: Envie e-mails e desenvolva sistemas de autenticação e segurança</t>
@@ -1409,7 +1409,7 @@
     <t>https://cursos.alura.com.br/course/jquery-a-biblioteca-do-mercado-parte-2</t>
   </si>
   <si>
-    <t>JavaScript,HTML,CSS,Jquery,AJAX.HTTP</t>
+    <t>JavaScript,HTML,CSS,Jquery,AJAX,HTTP</t>
   </si>
   <si>
     <t>JavaScript: Projeto de conclusão</t>
@@ -1430,7 +1430,7 @@
     <t>https://cursos.alura.com.br/course/javascript-es6-orientacao-a-objetos-parte-1</t>
   </si>
   <si>
-    <t>Programador React,Programador Angular2,Engenheiro JavaScript,Desenvolvedor Typescript</t>
+    <t>Programador React,Programador Angular 2,Engenheiro JavaScript,Desenvolvedor Typescript</t>
   </si>
   <si>
     <t>JavaScript,HTML,CSS</t>
@@ -1496,7 +1496,7 @@
     <t>https://cursos.alura.com.br/course/web-design-responsivo</t>
   </si>
   <si>
-    <t>Desenvolvedor Front-end,Email marketing</t>
+    <t>Desenvolvedor Front-end</t>
   </si>
   <si>
     <t>JavaScript,HTML,CSS,Web Design Responsivo</t>
@@ -1508,9 +1508,6 @@
     <t>https://cursos.alura.com.br/course/projeto-carreira-front-end</t>
   </si>
   <si>
-    <t>Desenvolvedor Front-end</t>
-  </si>
-  <si>
     <t>Gulp: automação de tarefas front-end</t>
   </si>
   <si>
@@ -1556,7 +1553,7 @@
     <t>https://cursos.alura.com.br/course/sass</t>
   </si>
   <si>
-    <t>HTML,CSS,HTTP.Sass,Compass</t>
+    <t>HTML,CSS,HTTP,Sass,Compass</t>
   </si>
   <si>
     <t>Bootstrap: criação de uma single-page responsiva</t>
@@ -1595,7 +1592,7 @@
     <t>Desenvolvedor FullStack MEAN,Programador Angular 1</t>
   </si>
   <si>
-    <t>JavaScript,MVC,HTML,HTTP,Angular 1</t>
+    <t>JavaScript,MVC,HTML,HTTP,Angular</t>
   </si>
   <si>
     <t>Node.js: Inovando com Javascript no backend</t>
@@ -1610,9 +1607,6 @@
     <t>Desenvolvedor FullStack MEAN,Desenvolvedor Node.js</t>
   </si>
   <si>
-    <t>JavaScript,Node.js,HTTP,Web Sockets,Testes</t>
-  </si>
-  <si>
     <t>MongoDB: Uma alternativa aos bancos relacionais tradicionais</t>
   </si>
   <si>
@@ -1676,7 +1670,7 @@
     <t>Programador Angular 2,Programador Ionic</t>
   </si>
   <si>
-    <t>JavaScript,Angular 2</t>
+    <t>JavaScript,Angular</t>
   </si>
   <si>
     <t>Angular 2: webapps ainda mais poderosas parte 2</t>
@@ -1691,7 +1685,7 @@
     <t>Programador Angular 2</t>
   </si>
   <si>
-    <t>JavaScript,Angular 2,Jquery,TypeScript,</t>
+    <t>JavaScript,Angular,Jquery,TypeScript,</t>
   </si>
   <si>
     <t>React parte 1: componentes reutilizáveis para sua webapp</t>
@@ -1745,7 +1739,7 @@
     <t>Desenvolvedor Vue.js</t>
   </si>
   <si>
-    <t>Vue.js,JavaScript,Babel,Webpack,</t>
+    <t>Vue.js,JavaScript,Babel,Webpack</t>
   </si>
   <si>
     <t>Vue.js parte 2: contruindo Single Page Applications</t>
@@ -1757,7 +1751,7 @@
     <t>https://cursos.alura.com.br/course/vue-parte2</t>
   </si>
   <si>
-    <t>Vue.js,JavaScript,CSS,SASS</t>
+    <t>Vue.js,JavaScript,CSS,Sass</t>
   </si>
   <si>
     <t>TypeScript parte 1: Evoluindo seu JavaScript</t>
@@ -1808,9 +1802,6 @@
     <t>https://cursos.alura.com.br/course/android-studio-ii-integracoes-e-recursos</t>
   </si>
   <si>
-    <t>Andriod,Android Studio,Java</t>
-  </si>
-  <si>
     <t>Andorid III: Aprimore sua app com Fragments, Google Maps e GPS</t>
   </si>
   <si>
@@ -1979,7 +1970,7 @@
     <t>Desenvolvedor Mobile Multiplataforma Cordova</t>
   </si>
   <si>
-    <t>JavaScript,Cordova,honeGap,PHTML,CSS,Android,iOS,REST,AJAX</t>
+    <t>JavaScript,Cordova,HoneGap,HTML,CSS,Android,iOS,REST,AJAX</t>
   </si>
   <si>
     <t>Xamarin parte 1: crie aplicativos mobile com Visual Studio</t>
@@ -2057,7 +2048,7 @@
     <t>https://cursos.alura.com.br/course/ionic2-parte2</t>
   </si>
   <si>
-    <t>Ionic,Angular,HTTP,Andorid,iOS</t>
+    <t>Ionic,Angular,HTTP,Android,iOS</t>
   </si>
   <si>
     <t>Ionic 3 parte 1: aplicações híbridas mobile ainda mais poderosas</t>
@@ -2177,8 +2168,8 @@
   </sheetPr>
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A175" activeCellId="0" sqref="A175"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F174" activeCellId="0" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2408,7 +2399,9 @@
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2460,6 +2453,9 @@
       <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2507,7 +2503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>65</v>
       </c>
@@ -2527,7 +2523,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>70</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>102</v>
       </c>
@@ -3604,18 +3600,18 @@
         <v>292</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>296</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>3</v>
@@ -3624,18 +3620,18 @@
         <v>292</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>299</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>3</v>
@@ -3644,18 +3640,18 @@
         <v>292</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>3</v>
@@ -3664,18 +3660,18 @@
         <v>287</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>306</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>3</v>
@@ -3684,18 +3680,18 @@
         <v>287</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>310</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>3</v>
@@ -3704,644 +3700,644 @@
         <v>287</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="D77" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="0" t="s">
+      <c r="F77" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>318</v>
-      </c>
       <c r="D78" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="D79" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="D80" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F80" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="D81" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="D82" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="0" t="s">
+      <c r="F82" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>336</v>
-      </c>
       <c r="D83" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F83" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C84" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="0" t="s">
+      <c r="F85" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="0" t="s">
+      <c r="F86" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>351</v>
-      </c>
       <c r="D87" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F87" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>353</v>
-      </c>
       <c r="D88" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F88" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="D89" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F89" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>357</v>
-      </c>
       <c r="D90" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>359</v>
-      </c>
       <c r="D91" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F91" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>361</v>
-      </c>
       <c r="D92" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F92" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D93" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F93" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>365</v>
-      </c>
       <c r="D94" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F94" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="D95" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="0" t="s">
+      <c r="F95" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>373</v>
-      </c>
       <c r="D96" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F96" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>380</v>
-      </c>
       <c r="D98" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F99" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F100" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="D101" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="0" t="s">
+      <c r="F102" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="D103" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="D104" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="0" t="s">
+      <c r="F104" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>407</v>
-      </c>
       <c r="D105" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="0" t="s">
+      <c r="F106" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="F107" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>416</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>417</v>
@@ -4361,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>420</v>
@@ -4381,47 +4377,47 @@
         <v>3</v>
       </c>
       <c r="E110" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="F110" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="C111" s="0" t="s">
+      <c r="D111" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="0" t="s">
+      <c r="F111" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>427</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>431</v>
@@ -4441,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>434</v>
@@ -4500,7 +4496,7 @@
       <c r="D116" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F116" s="0" t="s">
@@ -4520,7 +4516,7 @@
       <c r="D117" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F117" s="0" t="s">
@@ -4741,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>472</v>
@@ -4749,239 +4745,239 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="C129" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="D129" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E129" s="0" t="s">
+      <c r="F129" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B130" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="C130" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="D130" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F130" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B131" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="C131" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="D131" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B132" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="C132" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="D132" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F132" s="0" t="s">
         <v>512</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="C133" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="D133" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F133" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B134" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="C134" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="D134" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F134" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B135" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="C135" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="D135" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="D135" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="0" t="s">
+      <c r="F135" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="C136" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="D136" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="F136" s="0" t="s">
-        <v>531</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="D137" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F137" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="F137" s="0" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C138" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="D138" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F138" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="D139" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="F139" s="0" t="s">
         <v>542</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E139" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="D140" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>548</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>472</v>
@@ -4989,682 +4985,682 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="D141" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="F141" s="0" t="s">
         <v>551</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="F141" s="0" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="D142" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="F142" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="D143" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="F143" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="F143" s="0" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C144" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="D144" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="F144" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="F144" s="0" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C145" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="D145" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="F145" s="0" t="s">
         <v>569</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="F145" s="0" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C146" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="D146" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="F146" s="0" t="s">
         <v>574</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F146" s="0" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C147" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="D147" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F147" s="0" t="s">
         <v>578</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C148" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="D148" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="F148" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="C149" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="B149" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>588</v>
-      </c>
       <c r="D149" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C150" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="D150" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="F150" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="F150" s="0" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C151" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>596</v>
-      </c>
       <c r="D151" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="F152" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="F152" s="0" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="F154" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="F154" s="0" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="F157" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F163" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="F163" s="0" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="F164" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="F164" s="0" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="F167" s="0" t="s">
         <v>651</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="F167" s="0" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="F168" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F169" s="0" t="s">
         <v>660</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="F169" s="0" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F170" s="0" t="s">
         <v>664</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="F170" s="0" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F171" s="0" t="s">
         <v>668</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="F171" s="0" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="F172" s="0" t="s">
         <v>673</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="F172" s="0" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F173" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="F173" s="0" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
